--- a/public/SUGGEREIX_PT2_Taulest.xlsx
+++ b/public/SUGGEREIX_PT2_Taulest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra-my.sharepoint.com/personal/mfont_icra_cat/Documents/Documentos/SUGGEREIX_Taules_transformades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4201" documentId="8_{80B56595-2A78-4B3E-B479-2B233D390F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E8D0DFB-D77A-4D1C-99DB-DEFE7BFC0D36}"/>
+  <xr:revisionPtr revIDLastSave="4232" documentId="8_{80B56595-2A78-4B3E-B479-2B233D390F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B75B8BA8-6786-4CFF-BF5B-4A9932890AC3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caract_infraestructura_existent" sheetId="38" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="136">
   <si>
     <t>Descripció infraestructura existent</t>
   </si>
@@ -462,12 +462,6 @@
     <t>I19</t>
   </si>
   <si>
-    <t>10^5,85</t>
-  </si>
-  <si>
-    <t>10^7,6</t>
-  </si>
-  <si>
     <t>CFU/100 ml</t>
   </si>
   <si>
@@ -478,12 +472,6 @@
   </si>
   <si>
     <t>I20</t>
-  </si>
-  <si>
-    <t>10^6,04</t>
-  </si>
-  <si>
-    <t>10^6,75</t>
   </si>
   <si>
     <t>PFU/100 ml</t>
@@ -505,12 +493,6 @@
   </si>
   <si>
     <t>I21</t>
-  </si>
-  <si>
-    <t>10^3,18</t>
-  </si>
-  <si>
-    <t>10^6,41</t>
   </si>
   <si>
     <t>Lucena et al. 2004</t>
@@ -610,22 +592,7 @@
     <t>Bourgin et al. 2018; Krauss et al. 2009</t>
   </si>
   <si>
-    <t>10^4</t>
-  </si>
-  <si>
-    <t>10^5</t>
-  </si>
-  <si>
-    <t>10^2</t>
-  </si>
-  <si>
     <t>Costán Longares et al. 2008; Martí et al. 2011 (membrana amb porus de mida 0,4 µm); Trinh et al. 2012 (només F RNA fags, membrana amb porus de mida 0.1–0.2 μm); Zanetti et al. 2010 (suma colífags somàtics + F RNA fags, membrana amb porus de mida 0,4 µm)</t>
-  </si>
-  <si>
-    <t>10^6</t>
-  </si>
-  <si>
-    <t>10^3</t>
   </si>
   <si>
     <t>Costán Longares et al. 2008; Martí et al. 2011 (membrana amb porus de mida 0,4 µm); Trinh et al. 2012 (només F RNA fags, membrana amb porus de mida 0.1–0.2 μm)</t>
@@ -801,17 +768,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,24 +1099,24 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1163,76 +1130,76 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1251,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E069AC-3003-45F1-8B1F-3A738D77AD5F}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1741,7 +1708,7 @@
       <c r="C24" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="18">
@@ -1764,63 +1731,69 @@
       <c r="C25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="18">
+        <f>10^5.85</f>
+        <v>707945.78438413853</v>
+      </c>
+      <c r="E25" s="18">
+        <f>10^7.6</f>
+        <v>39810717.055349804</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="G25" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>112</v>
+      <c r="D26" s="19">
+        <f>10^6.04</f>
+        <v>1096478.196143186</v>
+      </c>
+      <c r="E26" s="19">
+        <f>10^6.75</f>
+        <v>5623413.2519034976</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>107</v>
+      <c r="D27" s="19">
+        <f>10^3.18</f>
+        <v>1513.5612484362093</v>
+      </c>
+      <c r="E27" s="19">
+        <f>10^6.41</f>
+        <v>2570395.782768866</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1834,8 +1807,8 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
@@ -1864,29 +1837,29 @@
         <v>25</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G1" s="9"/>
       <c r="H1" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="15">
       <c r="A2" s="9"/>
@@ -1895,181 +1868,181 @@
       <c r="D2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="21"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="21"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="21"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="15">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="7">
         <v>7</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="23">
         <v>7.5</v>
       </c>
       <c r="F4" s="7">
         <v>7</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="23">
         <v>7.5</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="23">
         <v>7.5</v>
       </c>
       <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="23">
         <v>7.5</v>
       </c>
       <c r="L4" s="7">
         <v>7</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="23">
         <v>7.5</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="23" t="s">
         <v>34</v>
       </c>
       <c r="O4" s="4"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>300</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>2000</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="23">
         <v>300</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="23">
         <v>2000</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="23">
         <v>300</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="23">
         <v>2000</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="23">
         <v>300</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="23">
         <v>2000</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="23">
         <v>300</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="23">
         <v>2000</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="23" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="23">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="23">
         <v>15</v>
       </c>
       <c r="F6" s="4">
@@ -2078,90 +2051,90 @@
       <c r="G6" s="4">
         <v>15</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="23">
         <v>1</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="23">
         <v>5</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="23">
         <v>0.3</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="23">
         <v>2</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="23">
         <v>0.3</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="23">
         <v>2</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="23" t="s">
         <v>40</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="23">
         <v>5</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="23">
         <v>25</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="23">
         <v>5</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="23">
         <v>25</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="23">
         <v>5</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="23">
         <v>20</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="23">
         <v>1</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="23">
         <v>5</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="23">
         <v>1</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="23">
         <v>5</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="O7" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="5">
@@ -2188,29 +2161,29 @@
       <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="23">
         <v>0.5</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="23">
         <v>5</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="O8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" s="14" customFormat="1" ht="15">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="23" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="12">
@@ -2254,22 +2227,22 @@
         <v>1287.1428571428601</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+        <v>121</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" s="14" customFormat="1" ht="15">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="4">
@@ -2313,40 +2286,40 @@
         <v>53142.857142857101</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O10" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+        <v>123</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" s="11" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <v>5</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="23">
         <v>700</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="23">
         <v>700</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="23">
         <v>5</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="23">
         <v>700</v>
       </c>
       <c r="J11" s="6">
@@ -2361,513 +2334,513 @@
       <c r="M11" s="6">
         <v>700</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="O11" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="23">
         <v>5</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="23">
         <v>100</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="23">
         <v>5</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="23">
         <v>100</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="23">
         <v>5</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="23">
         <v>100</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="23">
         <v>5</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="23">
         <v>100</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="23">
         <v>5</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="23">
         <v>100</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="O12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="23">
         <v>0.05</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="23">
         <v>20</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="23">
         <v>0.05</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="23">
         <v>20</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="23">
         <v>0.05</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="23">
         <v>20</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="23">
         <v>0.05</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="23">
         <v>20</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="23">
         <v>0.05</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="23">
         <v>20</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="O13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="23">
         <v>0.3</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="23">
         <v>10</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="23">
         <v>0.3</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="23">
         <v>10</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="23">
         <v>0.3</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="23">
         <v>10</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="23">
         <v>0.3</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="23">
         <v>10</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="23">
         <v>0.3</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="23">
         <v>10</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="O14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="23">
         <v>15.8</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="23">
         <v>15.8</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="23">
         <v>15.8</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="23">
         <v>15.8</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="23">
         <v>0.19600000000000001</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="23">
         <v>15.8</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="O15" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="23">
         <v>0.2</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="23">
         <v>6</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="23">
         <v>0.2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="23">
         <v>6</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="23">
         <v>0.2</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="23">
         <v>6</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="23">
         <v>0.2</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="23">
         <v>6</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="23">
         <v>0.2</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="23">
         <v>6</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="O16" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" s="11" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="23" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="6">
         <v>0.3</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="23">
         <v>3.5</v>
       </c>
       <c r="F17" s="6">
         <v>0.3</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="23">
         <v>3.5</v>
       </c>
       <c r="H17" s="6">
         <v>0.3</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="23">
         <v>3.5</v>
       </c>
       <c r="J17" s="6">
         <v>0.3</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="23">
         <v>3.5</v>
       </c>
       <c r="L17" s="6">
         <v>0.3</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="23">
         <v>3.5</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="21" t="s">
+      <c r="O17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>86</v>
       </c>
       <c r="D18" s="5">
         <v>0.376</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="23">
         <v>2.6</v>
       </c>
       <c r="F18" s="5">
         <v>0.376</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="23">
         <v>2.6</v>
       </c>
       <c r="H18" s="5">
         <v>0.376</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="23">
         <v>2.6</v>
       </c>
       <c r="J18" s="5">
         <v>0.376</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="23">
         <v>2.6</v>
       </c>
       <c r="L18" s="5">
         <v>0.376</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="23">
         <v>2.6</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="O18" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="23">
         <v>0.03</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="23">
         <v>23</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="23">
         <v>0.03</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="23">
         <v>23</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="23">
         <v>0.03</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="23">
         <v>23</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="23">
         <v>0.03</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="23">
         <v>23</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="23">
         <v>0.03</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="23">
         <v>23</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="O19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="23">
         <v>2.101</v>
       </c>
       <c r="F20" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="23">
         <v>2.101</v>
       </c>
       <c r="H20" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="23">
         <v>2.101</v>
       </c>
       <c r="J20" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="23">
         <v>2.101</v>
       </c>
       <c r="L20" s="6">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="M20" s="21">
+      <c r="M20" s="23">
         <v>2.101</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="O20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="23" t="s">
         <v>96</v>
       </c>
       <c r="D21" s="6">
         <v>0.3</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="23">
         <v>81</v>
       </c>
       <c r="F21" s="6">
         <v>0.3</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="23">
         <v>81</v>
       </c>
       <c r="H21" s="6">
         <v>0.3</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="23">
         <v>81</v>
       </c>
       <c r="J21" s="6">
         <v>0.3</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="23">
         <v>81</v>
       </c>
       <c r="L21" s="6">
         <v>0.3</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="23">
         <v>81</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="1:17" s="15" customFormat="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>100</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -2900,299 +2873,323 @@
       <c r="M22" s="16">
         <v>0.19</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="O22" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>140</v>
+      <c r="D23" s="5">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="E23" s="6">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="F23" s="5">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="G23" s="6">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="H23" s="5">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="I23" s="6">
+        <f>10^5</f>
+        <v>100000</v>
       </c>
       <c r="J23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>141</v>
+      <c r="K23" s="6">
+        <f>10^2</f>
+        <v>100</v>
       </c>
       <c r="L23" s="5">
         <v>1</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N23" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="M23" s="6">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>143</v>
+      <c r="D24" s="5">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="E24" s="6">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="F24" s="5">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="G24" s="6">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="5">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="I24" s="6">
+        <f>10^6</f>
+        <v>1000000</v>
       </c>
       <c r="J24" s="5">
         <v>10</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>144</v>
+      <c r="K24" s="6">
+        <f>10^3</f>
+        <v>1000</v>
       </c>
       <c r="L24" s="5">
         <v>10</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="O24" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="M24" s="6">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>139</v>
+      <c r="D25" s="5">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="E25" s="6">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="F25" s="6">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="G25" s="6">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="H25" s="5">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="I25" s="6">
+        <f>10^4</f>
+        <v>10000</v>
       </c>
       <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>141</v>
+      <c r="K25" s="6">
+        <f>10^2</f>
+        <v>100</v>
       </c>
       <c r="L25" s="6">
         <v>1</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="N25" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="O25" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="M25" s="6">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
     </row>
     <row r="27" spans="1:17" ht="15">
       <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="B28" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="B29" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="B30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
